--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/CREDITOS  HERRADURA  SEPTIEMBRE    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/CREDITOS  HERRADURA  SEPTIEMBRE    2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #09  SEPTIEMBRE 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\CENTRAL #09  SEPTIEMBRE 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="120" windowWidth="14340" windowHeight="10560" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="5970" yWindow="120" windowWidth="14340" windowHeight="10560" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name=" REMISONES  AGOSTO 2023   " sheetId="9" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="255">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -779,6 +779,33 @@
   <si>
     <t>5-Sept-23--</t>
   </si>
+  <si>
+    <t xml:space="preserve">VENTAS DE HERRADURA </t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
 </sst>
 </file>
 
@@ -958,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1037,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,6 +1451,20 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1427,6 +1474,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FF00FF00"/>
@@ -23115,7 +23163,7 @@
   </sheetPr>
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F164" sqref="F164:G164"/>
     </sheetView>
   </sheetViews>
@@ -28284,12 +28332,251 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.5703125" style="99" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="100">
+        <v>45383</v>
+      </c>
+      <c r="D6" s="101">
+        <v>140101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="100">
+        <v>45384</v>
+      </c>
+      <c r="D7" s="102">
+        <v>99369</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="100">
+        <v>45385</v>
+      </c>
+      <c r="D8" s="101">
+        <v>126579</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="100">
+        <v>45386</v>
+      </c>
+      <c r="D9" s="101">
+        <v>139229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="100">
+        <v>45387</v>
+      </c>
+      <c r="D10" s="101">
+        <v>161740</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="100">
+        <v>45388</v>
+      </c>
+      <c r="D11" s="101">
+        <v>232255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="100">
+        <v>45389</v>
+      </c>
+      <c r="D12" s="101">
+        <v>167462</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="100">
+        <v>45390</v>
+      </c>
+      <c r="D13" s="101">
+        <v>107320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="100">
+        <v>45391</v>
+      </c>
+      <c r="D14" s="102">
+        <v>87686</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="100">
+        <v>45392</v>
+      </c>
+      <c r="D15" s="101">
+        <v>118544</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="100">
+        <v>45393</v>
+      </c>
+      <c r="D16" s="101">
+        <v>131507</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="100">
+        <v>45394</v>
+      </c>
+      <c r="D17" s="101">
+        <v>164370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="100">
+        <v>45395</v>
+      </c>
+      <c r="D18" s="101">
+        <v>137918</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="100">
+        <v>45396</v>
+      </c>
+      <c r="D19" s="101">
+        <v>163163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="100">
+        <v>45397</v>
+      </c>
+      <c r="D20" s="101">
+        <v>146114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
+        <f>SUM(D6:D21)</f>
+        <v>2123357</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="98"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="98"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="98"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="98"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="98"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="98"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="98"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="98"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="98"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="98"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="98"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>